--- a/5.4.2_Auswertung_Lastwiderstand_Durchlassverluste.xlsx
+++ b/5.4.2_Auswertung_Lastwiderstand_Durchlassverluste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d903ac604836fbf5/Studium/3_MoSi/Praktikum/Praktikum 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Nextcloud\Studium\Unterrichtsunterlagen\Semester_3\Modellierung_und_Simulation\Praktikum\Versuch 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{432C0C20-CE00-4A05-997B-A97B024882F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE3FB843-EBB0-4581-8805-E7A00C7F691A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4D68E-01BC-4870-872E-FE951228E2A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="15720" xr2:uid="{3A55CB31-34D3-4561-ADE7-620C1DCC3F9C}"/>
+    <workbookView xWindow="-28920" yWindow="1752" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{3A55CB31-34D3-4561-ADE7-620C1DCC3F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="5.7 - R_L &amp; R_Vd für 1 Birnchen" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -148,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,11 +145,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -169,13 +182,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -282,6 +321,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -368,82 +467,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -620,15 +643,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82090922-4DCA-4930-BD2C-738EE8208E52}" name="Tabelle5.7" displayName="Tabelle5.7" ref="B4:F13" totalsRowCount="1" headerRowDxfId="21" dataDxfId="19" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82090922-4DCA-4930-BD2C-738EE8208E52}" name="Tabelle5.7" displayName="Tabelle5.7" ref="B4:F13" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23">
   <autoFilter ref="B4:F12" xr:uid="{82090922-4DCA-4930-BD2C-738EE8208E52}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{896B2F62-21F5-4D43-ACE5-AB286597E2B9}" name="Messung/Dateiname" totalsRowLabel="Mittelwert" dataDxfId="25" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C2074987-0B64-4DD4-AE56-9CA4618B0230}" name="U_A" dataDxfId="24" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{8FBA98AB-BA2C-4B2C-8FC8-6A1A2FFBD192}" name="R_Last" dataDxfId="23" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FADC22FF-0E7E-4FC8-ABEB-88B412BEA7D2}" name="R=R_L+R_V,D" dataDxfId="22" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5BB0E69E-CA39-4AEC-A6ED-ADB3D5814B17}" name="R_V,D=R-R_L" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="6">
-      <calculatedColumnFormula>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{896B2F62-21F5-4D43-ACE5-AB286597E2B9}" name="Messung/Dateiname" totalsRowLabel="Mittelwert" dataDxfId="22" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C2074987-0B64-4DD4-AE56-9CA4618B0230}" name="U_A" dataDxfId="21" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{8FBA98AB-BA2C-4B2C-8FC8-6A1A2FFBD192}" name="R_Last" dataDxfId="20" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{FADC22FF-0E7E-4FC8-ABEB-88B412BEA7D2}" name="R=R_L+R_V,D" dataDxfId="19" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{5BB0E69E-CA39-4AEC-A6ED-ADB3D5814B17}" name="R_V,D=R-R_L" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11">
+      <calculatedColumnFormula>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</calculatedColumnFormula>
       <totalsRowFormula>_xlfn.CONCAT("R_V,D=",SUBTOTAL(101,Tabelle5.7[R_V,D=R-R_L]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -640,12 +663,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9EB5793D-5572-4DE4-82AE-282DCA494985}" name="Tabelle5.8" displayName="Tabelle5.8" ref="B4:F13" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
   <autoFilter ref="B4:F12" xr:uid="{82090922-4DCA-4930-BD2C-738EE8208E52}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25A72C4A-202B-4E46-82CF-67E9C16275B5}" name="Messung/Dateiname" totalsRowLabel="Mittelwert" dataDxfId="15" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{975E5667-FA70-441D-9C19-E394E66F2B6D}" name="U_A" dataDxfId="14" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{EC1F0AF6-D918-4AAB-9824-E090B8BB68E1}" name="R_Last" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B9765B29-6DF0-47B3-A2A3-E5A5D8CC53D3}" name="R=R_L+R_V,D" dataDxfId="12" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{7D77A258-1B26-44F1-BB6F-1370E8CE5B24}" name="R_V,D=R-R_L" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0">
-      <calculatedColumnFormula>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{25A72C4A-202B-4E46-82CF-67E9C16275B5}" name="Messung/Dateiname" totalsRowLabel="Mittelwert" dataDxfId="9" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{975E5667-FA70-441D-9C19-E394E66F2B6D}" name="U_A" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{EC1F0AF6-D918-4AAB-9824-E090B8BB68E1}" name="R_Last" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B9765B29-6DF0-47B3-A2A3-E5A5D8CC53D3}" name="R=R_L+R_V,D" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7D77A258-1B26-44F1-BB6F-1370E8CE5B24}" name="R_V,D=R-R_L" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</calculatedColumnFormula>
       <totalsRowFormula>_xlfn.CONCAT("R_V,D=",SUBTOTAL(101,Tabelle5.8[R_V,D=R-R_L]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -654,7 +677,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -950,23 +973,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC18AF1-F3F4-419B-BFEB-6E706E1FEFEA}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
@@ -975,7 +998,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1006,11 +1029,11 @@
         <v>22.254000000000001</v>
       </c>
       <c r="F5" s="2">
-        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</f>
-        <v>-17.840999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>3.2540000000000013</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1024,11 +1047,11 @@
         <v>20.606000000000002</v>
       </c>
       <c r="F6" s="2">
-        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</f>
-        <v>-36.903999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>1.6060000000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1042,11 +1065,11 @@
         <v>20.782</v>
       </c>
       <c r="F7" s="2">
-        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</f>
-        <v>-46.953000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>1.782</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1060,11 +1083,11 @@
         <v>20.672000000000001</v>
       </c>
       <c r="F8" s="2">
-        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</f>
-        <v>-55.953000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>1.6720000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1078,11 +1101,11 @@
         <v>21.187000000000001</v>
       </c>
       <c r="F9" s="2">
-        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</f>
-        <v>-69.126000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>2.1870000000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1096,47 +1119,47 @@
         <v>21.501000000000001</v>
       </c>
       <c r="F10" s="2">
-        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</f>
-        <v>-80.208999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>2.5010000000000012</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
-        <v>10.194000000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>119.017</v>
-      </c>
-      <c r="E11" s="2">
-        <v>21.742000000000001</v>
-      </c>
-      <c r="F11" s="2">
-        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</f>
-        <v>-97.274999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>8.4529999999999994</v>
+      </c>
+      <c r="D11" s="4">
+        <v>110.60599999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>22.062000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>3.0620000000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>8.4529999999999994</v>
+        <v>10.194000000000001</v>
       </c>
       <c r="D12" s="2">
-        <v>110.60599999999999</v>
+        <v>119.017</v>
       </c>
       <c r="E12" s="2">
-        <v>22.062000000000001</v>
+        <v>21.742000000000001</v>
       </c>
       <c r="F12" s="2">
-        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-Tabelle5.7[[#This Row],[R_Last]]</f>
-        <v>-88.543999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.7[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>2.7420000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1145,8 +1168,20 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="str">
         <f>_xlfn.CONCAT("R_V,D=",SUBTOTAL(101,Tabelle5.7[R_V,D=R-R_L]))</f>
-        <v>R_V,D=-61,600625</v>
-      </c>
+        <v>R_V,D=2,35075</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1164,21 +1199,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A261176-5CBD-4C3D-B708-5BFCC167E3A0}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1222,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1240,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1219,11 +1254,11 @@
         <v>21.568000000000001</v>
       </c>
       <c r="F5" s="2">
-        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</f>
-        <v>7.9970000000000017</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>2.5680000000000014</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1237,11 +1272,11 @@
         <v>20.762</v>
       </c>
       <c r="F6" s="2">
-        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</f>
-        <v>-1.7459999999999987</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>1.7620000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1255,11 +1290,11 @@
         <v>20.457000000000001</v>
       </c>
       <c r="F7" s="2">
-        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</f>
-        <v>-7.5060000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>1.4570000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1273,11 +1308,11 @@
         <v>20.638999999999999</v>
       </c>
       <c r="F8" s="2">
-        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</f>
-        <v>-11.324000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>1.6389999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1291,11 +1326,11 @@
         <v>21.257000000000001</v>
       </c>
       <c r="F9" s="2">
-        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</f>
-        <v>-17.527999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>2.2570000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1309,47 +1344,47 @@
         <v>21.48</v>
       </c>
       <c r="F10" s="2">
-        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</f>
-        <v>-22.888999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>2.4800000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>7.9690000000000003</v>
+        <v>6.9290000000000003</v>
       </c>
       <c r="D11" s="2">
-        <v>51.674999999999997</v>
+        <v>48.863999999999997</v>
       </c>
       <c r="E11" s="2">
-        <v>26.533000000000001</v>
+        <v>21.635000000000002</v>
       </c>
       <c r="F11" s="2">
-        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</f>
-        <v>-25.141999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>2.6350000000000016</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>6.9290000000000003</v>
+        <v>7.9690000000000003</v>
       </c>
       <c r="D12" s="2">
-        <v>48.863999999999997</v>
+        <v>51.674999999999997</v>
       </c>
       <c r="E12" s="2">
-        <v>21.635000000000002</v>
+        <v>26.533000000000001</v>
       </c>
       <c r="F12" s="2">
-        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-Tabelle5.8[[#This Row],[R_Last]]</f>
-        <v>-27.228999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>Tabelle5.8[[#This Row],[R=R_L+R_V,D]]-19</f>
+        <v>7.5330000000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1358,10 +1393,10 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="str">
         <f>_xlfn.CONCAT("R_V,D=",SUBTOTAL(101,Tabelle5.8[R_V,D=R-R_L]))</f>
-        <v>R_V,D=-13,170875</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>R_V,D=2,791375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G14" s="1"/>
     </row>
   </sheetData>
